--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeScaria\git\gSTAX-Appium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeScaria\Testing\SDET-Appium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85D141-AB84-469E-AE43-28C807DA23D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51115730-622E-4ECC-AB41-B41F8D3E6783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,6 +369,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
